--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Fgf9</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H2">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I2">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J2">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>1.13299104126075</v>
+        <v>0.1881948451835</v>
       </c>
       <c r="R2">
-        <v>4.531964165043</v>
+        <v>0.7527793807340001</v>
       </c>
       <c r="S2">
-        <v>0.2088882229553205</v>
+        <v>0.07867890853376512</v>
       </c>
       <c r="T2">
-        <v>0.1318608924688488</v>
+        <v>0.05511921740780298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H3">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I3">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J3">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
-        <v>1.296240378814</v>
+        <v>2.022947936938</v>
       </c>
       <c r="R3">
-        <v>7.777442272883999</v>
+        <v>12.137687621628</v>
       </c>
       <c r="S3">
-        <v>0.2389863109174154</v>
+        <v>0.845736957054913</v>
       </c>
       <c r="T3">
-        <v>0.2262905093420362</v>
+        <v>0.888732954125527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H4">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I4">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J4">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,90 +676,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>0.1292748834585</v>
+        <v>0.171191761709</v>
       </c>
       <c r="R4">
-        <v>0.517099533834</v>
+        <v>0.684767046836</v>
       </c>
       <c r="S4">
-        <v>0.02383425790229831</v>
+        <v>0.07157040326000084</v>
       </c>
       <c r="T4">
-        <v>0.01504539831813299</v>
+        <v>0.05013929006855959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.3096565</v>
+        <v>0.008236666666666666</v>
       </c>
       <c r="H5">
-        <v>2.619313</v>
+        <v>0.02471</v>
       </c>
       <c r="I5">
-        <v>0.498822476538879</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J5">
-        <v>0.3988701096662744</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N5">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O5">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P5">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q5">
-        <v>0.1470622014893333</v>
+        <v>0.0007584075566666667</v>
       </c>
       <c r="R5">
-        <v>0.882373208936</v>
+        <v>0.004550445340000001</v>
       </c>
       <c r="S5">
-        <v>0.02711368476384469</v>
+        <v>0.0003170686143082765</v>
       </c>
       <c r="T5">
-        <v>0.02567330953725646</v>
+        <v>0.0003331879065991739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,40 +788,40 @@
         <v>0.02471</v>
       </c>
       <c r="I6">
-        <v>0.003137184800053983</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J6">
-        <v>0.003762849422674434</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N6">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O6">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P6">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q6">
-        <v>0.007125585635000001</v>
+        <v>0.008152290253333331</v>
       </c>
       <c r="R6">
-        <v>0.04275351381</v>
+        <v>0.07337061227999998</v>
       </c>
       <c r="S6">
-        <v>0.001313735825443789</v>
+        <v>0.003408240531547535</v>
       </c>
       <c r="T6">
-        <v>0.001243945512775775</v>
+        <v>0.005372265544337432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,412 +850,40 @@
         <v>0.02471</v>
       </c>
       <c r="I7">
-        <v>0.003137184800053983</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J7">
-        <v>0.003762849422674434</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N7">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O7">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P7">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q7">
-        <v>0.008152290253333331</v>
+        <v>0.0006898867266666666</v>
       </c>
       <c r="R7">
-        <v>0.07337061227999998</v>
+        <v>0.00413932036</v>
       </c>
       <c r="S7">
-        <v>0.001503028145871159</v>
+        <v>0.0002884220054653455</v>
       </c>
       <c r="T7">
-        <v>0.002134772929329833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.008236666666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.02471</v>
-      </c>
-      <c r="I8">
-        <v>0.003137184800053983</v>
-      </c>
-      <c r="J8">
-        <v>0.003762849422674434</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.197418</v>
-      </c>
-      <c r="O8">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P8">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q8">
-        <v>0.0008130331299999999</v>
-      </c>
-      <c r="R8">
-        <v>0.00487819878</v>
-      </c>
-      <c r="S8">
-        <v>0.0001498979599525502</v>
-      </c>
-      <c r="T8">
-        <v>0.0001419348479700846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.008236666666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.02471</v>
-      </c>
-      <c r="I9">
-        <v>0.003137184800053983</v>
-      </c>
-      <c r="J9">
-        <v>0.003762849422674434</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.336872</v>
-      </c>
-      <c r="O9">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P9">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q9">
-        <v>0.0009249007911111111</v>
-      </c>
-      <c r="R9">
-        <v>0.00832410712</v>
-      </c>
-      <c r="S9">
-        <v>0.0001705228687864852</v>
-      </c>
-      <c r="T9">
-        <v>0.0002421961325987414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>1.307603</v>
-      </c>
-      <c r="H10">
-        <v>3.922809</v>
-      </c>
-      <c r="I10">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J10">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.8651055000000001</v>
-      </c>
-      <c r="N10">
-        <v>1.730211</v>
-      </c>
-      <c r="O10">
-        <v>0.418762651604452</v>
-      </c>
-      <c r="P10">
-        <v>0.3305860461170526</v>
-      </c>
-      <c r="Q10">
-        <v>1.1312145471165</v>
-      </c>
-      <c r="R10">
-        <v>6.787287282699001</v>
-      </c>
-      <c r="S10">
-        <v>0.2085606928236877</v>
-      </c>
-      <c r="T10">
-        <v>0.197481208135428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>1.307603</v>
-      </c>
-      <c r="H11">
-        <v>3.922809</v>
-      </c>
-      <c r="I11">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J11">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.9897559999999999</v>
-      </c>
-      <c r="N11">
-        <v>2.969268</v>
-      </c>
-      <c r="O11">
-        <v>0.4791009269984018</v>
-      </c>
-      <c r="P11">
-        <v>0.5673288217343945</v>
-      </c>
-      <c r="Q11">
-        <v>1.294207914868</v>
-      </c>
-      <c r="R11">
-        <v>11.647871233812</v>
-      </c>
-      <c r="S11">
-        <v>0.2386115879351152</v>
-      </c>
-      <c r="T11">
-        <v>0.3389035394630285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>1.307603</v>
-      </c>
-      <c r="H12">
-        <v>3.922809</v>
-      </c>
-      <c r="I12">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J12">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N12">
-        <v>0.197418</v>
-      </c>
-      <c r="O12">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P12">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q12">
-        <v>0.129072184527</v>
-      </c>
-      <c r="R12">
-        <v>0.774433107162</v>
-      </c>
-      <c r="S12">
-        <v>0.0237968865391948</v>
-      </c>
-      <c r="T12">
-        <v>0.02253271141362524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>1.307603</v>
-      </c>
-      <c r="H13">
-        <v>3.922809</v>
-      </c>
-      <c r="I13">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J13">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.336872</v>
-      </c>
-      <c r="O13">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P13">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q13">
-        <v>0.1468316126053333</v>
-      </c>
-      <c r="R13">
-        <v>1.321484513448</v>
-      </c>
-      <c r="S13">
-        <v>0.02707117136306933</v>
-      </c>
-      <c r="T13">
-        <v>0.03844958189896949</v>
+        <v>0.0003030849471739262</v>
       </c>
     </row>
   </sheetData>
